--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3395957.409675399</v>
+        <v>3391902.485295899</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.143223172</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6880947.30793402</v>
+        <v>6877997.410981925</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>171.4374132037525</v>
+        <v>188.1060298540518</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>47.7761412044506</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>139.3533637359435</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>62.66020806212639</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>87.95308749070807</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -947,19 +947,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>211.9226899548303</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>355.3194152455478</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>1.894826399410924</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>100.8538645611662</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -1069,7 +1069,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>93.52529077486058</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>125.1401820075946</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>278.9357490967232</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>108.1045920014104</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
@@ -1385,7 +1385,7 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>11.87843712116366</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>88.47671354272076</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>81.61838887131719</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.65591760717354</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059424</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
-        <v>127.2743219418601</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
         <v>159.2039277954309</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003578</v>
+        <v>280.4599644277186</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281736</v>
+        <v>273.2139126555344</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689346</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806958</v>
+        <v>282.5278558080566</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313969</v>
+        <v>296.6956602587577</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029518</v>
+        <v>293.0012941303125</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.8123861026099</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453473</v>
+        <v>20.92391191189552</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443485</v>
+        <v>48.81858568179564</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622524</v>
+        <v>105.2357625896132</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158223</v>
+        <v>137.1653684431831</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495917</v>
+        <v>222.6559073769525</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274703</v>
+        <v>251.2592108548311</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623486</v>
+        <v>269.5282451897094</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346798</v>
+        <v>276.4959681620406</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046317</v>
+        <v>67.32610467782396</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074558</v>
+        <v>52.47323292810637</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258531</v>
+        <v>38.0469481399461</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546442</v>
+        <v>37.97339019282521</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523169</v>
+        <v>39.72284161259248</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762382</v>
+        <v>50.54167953498461</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419586</v>
+        <v>37.89393170155665</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536779</v>
+        <v>15.73364728272858</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982371</v>
+        <v>6.632145647184501</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535103</v>
+        <v>84.75808915271182</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595231</v>
+        <v>117.3320274868839</v>
       </c>
       <c r="U34" t="n">
-        <v>172.998032486593</v>
+        <v>166.5545700139538</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734589</v>
+        <v>147.2897179008197</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942091</v>
+        <v>164.4672642215698</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409216</v>
+        <v>115.7096851682824</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.8511067449588</v>
       </c>
     </row>
     <row r="35">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840511</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252671</v>
+        <v>76.74588912903036</v>
       </c>
       <c r="E41" t="n">
         <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>106.3740388304712</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822795</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812808</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>242.218901733285</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
         <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
         <v>296.0589625183731</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415642</v>
+        <v>86.8890990341564</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443882</v>
+        <v>72.03622728443881</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627855</v>
+        <v>57.60994249627853</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915766</v>
+        <v>57.53638454915765</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892493</v>
+        <v>59.28583596892491</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131706</v>
+        <v>70.10467389131705</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788911</v>
+        <v>57.45692605788909</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906104</v>
+        <v>35.29664163906102</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351695</v>
+        <v>26.19514000351694</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090443</v>
@@ -3955,7 +3955,7 @@
         <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
         <v>184.0302585779023</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
         <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E44" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
         <v>316.2586546150901</v>
@@ -3992,10 +3992,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>106.3740388304713</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822795</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812808</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
         <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460418</v>
+        <v>51.51649707691813</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.058962518373</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415639</v>
+        <v>86.8890990341564</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443879</v>
+        <v>72.03622728443881</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627852</v>
+        <v>57.60994249627853</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915763</v>
+        <v>57.53638454915765</v>
       </c>
       <c r="F46" t="n">
-        <v>59.2858359689249</v>
+        <v>59.28583596892491</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131703</v>
+        <v>70.10467389131705</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788908</v>
+        <v>57.45692605788909</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906101</v>
+        <v>35.29664163906102</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351693</v>
+        <v>26.19514000351694</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
         <v>136.8950218432163</v>
@@ -4198,7 +4198,7 @@
         <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
         <v>124.4141011012912</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.5501748717591</v>
+        <v>1796.917290454964</v>
       </c>
       <c r="C2" t="n">
-        <v>388.5501748717591</v>
+        <v>1796.917290454964</v>
       </c>
       <c r="D2" t="n">
-        <v>388.5501748717591</v>
+        <v>1411.476161671632</v>
       </c>
       <c r="E2" t="n">
-        <v>388.5501748717591</v>
+        <v>1008.892636788176</v>
       </c>
       <c r="F2" t="n">
-        <v>375.6961404421409</v>
+        <v>591.9981983181542</v>
       </c>
       <c r="G2" t="n">
-        <v>366.5737889705482</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703879</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K2" t="n">
-        <v>187.1405114458669</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L2" t="n">
-        <v>680.4608031643958</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M2" t="n">
-        <v>1158.674436563756</v>
+        <v>1236.68920190726</v>
       </c>
       <c r="N2" t="n">
-        <v>1684.497325959611</v>
+        <v>1236.68920190726</v>
       </c>
       <c r="O2" t="n">
-        <v>2124.53692685194</v>
+        <v>1676.728802799589</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137462</v>
+        <v>1986.923381216633</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078512</v>
+        <v>1986.923381216633</v>
       </c>
       <c r="T2" t="n">
-        <v>1920.030458078512</v>
+        <v>1986.923381216633</v>
       </c>
       <c r="U2" t="n">
-        <v>1664.277728513111</v>
+        <v>1986.923381216633</v>
       </c>
       <c r="V2" t="n">
-        <v>1322.170919216629</v>
+        <v>1986.923381216633</v>
       </c>
       <c r="W2" t="n">
-        <v>951.171884184917</v>
+        <v>1986.923381216633</v>
       </c>
       <c r="X2" t="n">
-        <v>561.7192791179738</v>
+        <v>1986.923381216633</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.5501748717591</v>
+        <v>1796.917290454964</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>668.0376615721132</v>
+        <v>505.946743095506</v>
       </c>
       <c r="C3" t="n">
-        <v>517.3834311322054</v>
+        <v>355.2925126555982</v>
       </c>
       <c r="D3" t="n">
-        <v>387.2944637536857</v>
+        <v>225.2035452770785</v>
       </c>
       <c r="E3" t="n">
-        <v>250.8479728645734</v>
+        <v>88.75705438796626</v>
       </c>
       <c r="F3" t="n">
-        <v>250.8479728645734</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="G3" t="n">
-        <v>130.7881549364379</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>524.0644117969355</v>
       </c>
       <c r="M3" t="n">
-        <v>1484.733842113161</v>
+        <v>1025.231194792385</v>
       </c>
       <c r="N3" t="n">
-        <v>2010.556731509016</v>
+        <v>1289.38442038077</v>
       </c>
       <c r="O3" t="n">
-        <v>2124.53692685194</v>
+        <v>1790.55120337622</v>
       </c>
       <c r="P3" t="n">
-        <v>2124.53692685194</v>
+        <v>1790.55120337622</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.53692685194</v>
+        <v>2000.999251829175</v>
       </c>
       <c r="S3" t="n">
-        <v>1989.606249751809</v>
+        <v>1866.068574729044</v>
       </c>
       <c r="T3" t="n">
-        <v>1812.622437950717</v>
+        <v>1689.084762927953</v>
       </c>
       <c r="U3" t="n">
-        <v>1602.559294629359</v>
+        <v>1479.021619606594</v>
       </c>
       <c r="V3" t="n">
-        <v>1380.019293000426</v>
+        <v>1256.481617977661</v>
       </c>
       <c r="W3" t="n">
-        <v>1149.902047133713</v>
+        <v>1026.364372110948</v>
       </c>
       <c r="X3" t="n">
-        <v>960.5949694837245</v>
+        <v>837.0572944609601</v>
       </c>
       <c r="Y3" t="n">
-        <v>819.8339960130745</v>
+        <v>657.7430775364674</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>617.2206878937177</v>
+        <v>210.703443832633</v>
       </c>
       <c r="C4" t="n">
-        <v>617.2206878937177</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="D4" t="n">
-        <v>617.2206878937177</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="E4" t="n">
-        <v>553.9275484370244</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="F4" t="n">
-        <v>396.6016136499973</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="G4" t="n">
-        <v>228.3475597494429</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="H4" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U4" t="n">
-        <v>617.2206878937177</v>
+        <v>853.1038459243078</v>
       </c>
       <c r="V4" t="n">
-        <v>617.2206878937177</v>
+        <v>853.1038459243078</v>
       </c>
       <c r="W4" t="n">
-        <v>617.2206878937177</v>
+        <v>853.1038459243078</v>
       </c>
       <c r="X4" t="n">
-        <v>617.2206878937177</v>
+        <v>619.0235237072909</v>
       </c>
       <c r="Y4" t="n">
-        <v>617.2206878937177</v>
+        <v>395.9114625239343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1334.968099860102</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="C5" t="n">
-        <v>1334.968099860102</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="D5" t="n">
-        <v>1334.968099860102</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="E5" t="n">
-        <v>1334.968099860102</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="F5" t="n">
-        <v>918.0736613900801</v>
+        <v>512.0408447112595</v>
       </c>
       <c r="G5" t="n">
-        <v>504.9109058780833</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H5" t="n">
-        <v>180.827855444574</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="L5" t="n">
-        <v>448.0059870269527</v>
+        <v>678.4683905259792</v>
       </c>
       <c r="M5" t="n">
-        <v>973.8288764228078</v>
+        <v>1051.843641766312</v>
       </c>
       <c r="N5" t="n">
-        <v>1499.651765818663</v>
+        <v>1051.843641766312</v>
       </c>
       <c r="O5" t="n">
-        <v>1939.691366710991</v>
+        <v>1491.88324265864</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710991</v>
+        <v>1840.070734790162</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137462</v>
+        <v>1986.923381216633</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078512</v>
+        <v>1820.409826157683</v>
       </c>
       <c r="T5" t="n">
-        <v>1705.967134891815</v>
+        <v>1596.9092237171</v>
       </c>
       <c r="U5" t="n">
-        <v>1705.967134891815</v>
+        <v>1596.9092237171</v>
       </c>
       <c r="V5" t="n">
-        <v>1705.967134891815</v>
+        <v>1254.802414420618</v>
       </c>
       <c r="W5" t="n">
-        <v>1334.968099860102</v>
+        <v>883.8033793889058</v>
       </c>
       <c r="X5" t="n">
-        <v>1334.968099860102</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="Y5" t="n">
-        <v>1334.968099860102</v>
+        <v>524.8948791408777</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>839.8643090386531</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202257</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>422.6746203311134</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>298.2428142142452</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512721</v>
+        <v>89.88557988671063</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567662</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189926</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L6" t="n">
-        <v>475.3448668189926</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M6" t="n">
-        <v>475.3448668189926</v>
+        <v>861.4042549562986</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896707</v>
+        <v>1289.38442038077</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580652</v>
+        <v>1790.55120337622</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.55120337622</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931111</v>
       </c>
       <c r="T6" t="n">
-        <v>1947.553115050848</v>
+        <v>2023.0023288711</v>
       </c>
       <c r="U6" t="n">
-        <v>1737.48997172949</v>
+        <v>1812.939185549742</v>
       </c>
       <c r="V6" t="n">
-        <v>1514.949970100557</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W6" t="n">
-        <v>1284.832724233844</v>
+        <v>1360.281938054095</v>
       </c>
       <c r="X6" t="n">
-        <v>1095.525646583856</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>991.6606434796145</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>834.741203501409</v>
+        <v>847.4753577584972</v>
       </c>
       <c r="C7" t="n">
-        <v>834.741203501409</v>
+        <v>677.2702398244865</v>
       </c>
       <c r="D7" t="n">
-        <v>679.1080904039238</v>
+        <v>521.6371267270013</v>
       </c>
       <c r="E7" t="n">
-        <v>523.5492782631263</v>
+        <v>366.0783145862038</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2233434760993</v>
+        <v>208.7523797991767</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9692895755448</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862222</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>834.741203501409</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>834.741203501409</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U7" t="n">
-        <v>834.741203501409</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="V7" t="n">
-        <v>834.741203501409</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="W7" t="n">
-        <v>834.741203501409</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="X7" t="n">
-        <v>834.741203501409</v>
+        <v>847.4753577584972</v>
       </c>
       <c r="Y7" t="n">
-        <v>834.741203501409</v>
+        <v>847.4753577584972</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>182.839545823232</v>
+        <v>1927.160845651305</v>
       </c>
       <c r="C8" t="n">
-        <v>182.839545823232</v>
+        <v>1533.985344154236</v>
       </c>
       <c r="D8" t="n">
-        <v>182.839545823232</v>
+        <v>1148.544215370903</v>
       </c>
       <c r="E8" t="n">
-        <v>182.839545823232</v>
+        <v>745.9606904874479</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>329.0662520174257</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4802,13 +4802,13 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>318.7636682303387</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
         <v>864.7645682749193</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1339.781895001287</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>968.782859969574</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>579.3302549026308</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>182.839545823232</v>
+        <v>2327.655591362702</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>632.8109751081457</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>839.5634350659138</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.171044252415</v>
+        <v>1520.172595964104</v>
       </c>
       <c r="C11" t="n">
-        <v>1021.936224042534</v>
+        <v>1221.937775754222</v>
       </c>
       <c r="D11" t="n">
-        <v>1021.936224042534</v>
+        <v>931.4373282580787</v>
       </c>
       <c r="E11" t="n">
-        <v>714.2933804462673</v>
+        <v>931.4373282580787</v>
       </c>
       <c r="F11" t="n">
-        <v>392.3396232634332</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G11" t="n">
-        <v>74.11754903862465</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5051,7 +5051,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O11" t="n">
         <v>2572.923332933306</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.82359028062</v>
+        <v>2945.013093714095</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002407</v>
+        <v>2945.013093714095</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993114</v>
+        <v>2697.846965704802</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.78706024859</v>
+        <v>2421.788611960278</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.275136468835</v>
+        <v>2127.276688180523</v>
       </c>
       <c r="Y11" t="n">
-        <v>1625.725108676624</v>
+        <v>1825.726660388312</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551</v>
+        <v>493.0843669550999</v>
       </c>
       <c r="C13" t="n">
         <v>417.8199303082775</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979807</v>
+        <v>357.1274984979806</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443714</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445329</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311671</v>
+        <v>160.8107415311668</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798494</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362514</v>
+        <v>125.396746836251</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757661</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852098</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553813</v>
+        <v>711.5230842553811</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592129</v>
+        <v>583.3517043592128</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1642.069506034397</v>
+        <v>1681.115887455785</v>
       </c>
       <c r="C14" t="n">
-        <v>1343.834685824516</v>
+        <v>1382.881067245904</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.334238328372</v>
+        <v>1092.38061974976</v>
       </c>
       <c r="E14" t="n">
-        <v>745.6913947321048</v>
+        <v>784.7377761534926</v>
       </c>
       <c r="F14" t="n">
-        <v>423.7376375492709</v>
+        <v>462.7840189706587</v>
       </c>
       <c r="G14" t="n">
-        <v>105.5155633244624</v>
+        <v>144.5619447458503</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3066.910003784389</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3066.910003784389</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>3066.910003784389</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2819.743875775095</v>
+        <v>2858.790257196483</v>
       </c>
       <c r="W14" t="n">
-        <v>2543.685522030571</v>
+        <v>2582.731903451959</v>
       </c>
       <c r="X14" t="n">
-        <v>2249.173598250816</v>
+        <v>2288.219979672204</v>
       </c>
       <c r="Y14" t="n">
-        <v>1947.623570458606</v>
+        <v>1986.669951879994</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1009.629923393023</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C16" t="n">
         <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798494</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757663</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791398</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469772</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5552,7 +5552,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,31 +5771,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,19 +5911,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655136</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6075,16 +6075,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6157,10 +6157,10 @@
         <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2546.304425485126</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377455</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.58288023855</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.428440379499</v>
@@ -6254,22 +6254,22 @@
         <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1504.441740534771</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
         <v>1751.713933651898</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718128</v>
@@ -6461,10 +6461,10 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859516</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429867</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
         <v>1349.471364791089</v>
@@ -6473,13 +6473,13 @@
         <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>3079.395388107028</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508977</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.428440379499</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174142</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164849</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420325</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.56169864057</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755025</v>
@@ -6625,10 +6625,10 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084637</v>
+        <v>1719.814764781095</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.84111563409</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200823</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144923</v>
+        <v>890.2201666674325</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423742</v>
+        <v>590.5275805474753</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855435</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267647</v>
+        <v>87.68547930209908</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="J32" t="n">
-        <v>239.7092163698411</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>598.6915723973029</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1200.502371756218</v>
+        <v>1165.756364896303</v>
       </c>
       <c r="M32" t="n">
-        <v>1746.503271800798</v>
+        <v>1826.626800429182</v>
       </c>
       <c r="N32" t="n">
-        <v>2274.31455543826</v>
+        <v>2354.438084066644</v>
       </c>
       <c r="O32" t="n">
-        <v>2822.844663970975</v>
+        <v>2794.477684958973</v>
       </c>
       <c r="P32" t="n">
-        <v>3171.032156102497</v>
+        <v>3142.665177090494</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243445</v>
+        <v>3327.510737231443</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231443</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491226</v>
+        <v>3278.199034522558</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448547</v>
+        <v>3171.90028443204</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.44439528105</v>
+        <v>3033.349407216704</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.444450270287</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748664</v>
+        <v>2554.647267588639</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871761</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.107658142427</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633125</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1610.742078551577</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590197</v>
+        <v>341.6872565554773</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229131</v>
+        <v>288.6839909715315</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233319</v>
+        <v>250.2527302241112</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804386</v>
+        <v>211.8957704333787</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913156</v>
+        <v>171.7716879964166</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886653</v>
+        <v>120.7194864459271</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806341</v>
+        <v>82.44278775748602</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304543</v>
+        <v>151.64600763549</v>
       </c>
       <c r="K34" t="n">
-        <v>179.0108193991402</v>
+        <v>233.4810487454319</v>
       </c>
       <c r="L34" t="n">
-        <v>343.13845927294</v>
+        <v>512.4782241075304</v>
       </c>
       <c r="M34" t="n">
-        <v>637.9205452515898</v>
+        <v>813.6393379340932</v>
       </c>
       <c r="N34" t="n">
-        <v>929.6006869231849</v>
+        <v>996.8289719653023</v>
       </c>
       <c r="O34" t="n">
-        <v>1200.795961605279</v>
+        <v>1203.157289372675</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022243</v>
+        <v>1323.033455149254</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392294</v>
+        <v>1326.455651519305</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422775</v>
+        <v>1319.756514501947</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003229</v>
+        <v>1234.142283034561</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569367</v>
+        <v>1115.62508355286</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209172</v>
+        <v>947.3881441448257</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279004</v>
+        <v>798.6106513157148</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569822</v>
+        <v>632.4821015969574</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378694</v>
+        <v>515.6036317300054</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524169</v>
+        <v>409.6934228967137</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7017,22 +7017,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7108,10 +7108,10 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924229</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,19 +7202,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7254,22 +7254,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655151</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1693.618740970509</v>
+        <v>1643.229103597239</v>
       </c>
       <c r="C41" t="n">
-        <v>1397.884491463573</v>
+        <v>1347.494854090302</v>
       </c>
       <c r="D41" t="n">
-        <v>1109.884614670373</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="E41" t="n">
-        <v>804.742341777051</v>
+        <v>964.8314810666463</v>
       </c>
       <c r="F41" t="n">
-        <v>485.2891552971623</v>
+        <v>645.3782945867573</v>
       </c>
       <c r="G41" t="n">
-        <v>169.5676517752986</v>
+        <v>329.6567910648937</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>2752.513254111243</v>
       </c>
       <c r="V41" t="n">
-        <v>2861.290827899428</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2587.733044857848</v>
+        <v>2234.289913763315</v>
       </c>
       <c r="X41" t="n">
-        <v>2295.721691781038</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y41" t="n">
-        <v>1996.672234691773</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7491,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344864</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
         <v>402.8165060906088</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832568</v>
+        <v>344.6246449832567</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325925</v>
+        <v>286.5070848325924</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356986</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
         <v>155.8096001252773</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690445</v>
+        <v>97.77230107690444</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,13 +7573,13 @@
         <v>305.184768367679</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>505.1989733022411</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308019</v>
+        <v>786.9927227160347</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822774</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O43" t="n">
         <v>1323.891465940011</v>
@@ -7588,31 +7588,31 @@
         <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
         <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
         <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557618</v>
+        <v>825.6570181557616</v>
       </c>
       <c r="X43" t="n">
-        <v>689.017947928878</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356545</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1693.61874097051</v>
+        <v>1853.707880260104</v>
       </c>
       <c r="C44" t="n">
-        <v>1397.884491463573</v>
+        <v>1557.973630753168</v>
       </c>
       <c r="D44" t="n">
-        <v>1109.884614670374</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="E44" t="n">
-        <v>804.7423417770515</v>
+        <v>964.8314810666465</v>
       </c>
       <c r="F44" t="n">
-        <v>485.2891552971624</v>
+        <v>645.3782945867574</v>
       </c>
       <c r="G44" t="n">
-        <v>169.5676517752987</v>
+        <v>329.6567910648937</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,28 +7670,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2861.290827899428</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
-        <v>2587.733044857849</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="X44" t="n">
-        <v>2295.721691781039</v>
+        <v>2455.810831070633</v>
       </c>
       <c r="Y44" t="n">
-        <v>1996.672234691773</v>
+        <v>2156.761373981368</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7783,22 +7783,22 @@
         <v>475.5803720344863</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906087</v>
+        <v>402.8165060906088</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832566</v>
+        <v>344.6246449832567</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325923</v>
+        <v>286.5070848325924</v>
       </c>
       <c r="F46" t="n">
         <v>226.6224020356985</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690443</v>
+        <v>97.77230107690445</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,10 +7810,10 @@
         <v>305.184768367679</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022405</v>
+        <v>505.1989733022411</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160341</v>
+        <v>786.9927227160347</v>
       </c>
       <c r="N46" t="n">
         <v>1065.684527822773</v>
@@ -7843,7 +7843,7 @@
         <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557615</v>
+        <v>825.6570181557616</v>
       </c>
       <c r="X46" t="n">
         <v>689.0179479288779</v>
@@ -7979,22 +7979,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7691257384954</v>
+        <v>350.9760166015853</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507691</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622968</v>
+        <v>598.6161957820896</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671516</v>
+        <v>352.1935528424342</v>
       </c>
       <c r="O3" t="n">
-        <v>207.8190693362866</v>
+        <v>598.9166326216666</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,19 +8219,19 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>416.7486501154268</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107123</v>
+        <v>526.8717700223058</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507691</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,16 +8301,16 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>598.6161957820896</v>
       </c>
       <c r="N6" t="n">
-        <v>583.0340493902052</v>
+        <v>517.6753102526229</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216666</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>417.2510275517577</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8535,22 +8535,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5244230630205</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,25 +8766,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>108.8653421701425</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>168.5060516210921</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
-        <v>538.5873532373481</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,25 +9240,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>262.1075997502998</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9416,10 +9416,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475136</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,22 +9477,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>551.1687275349758</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9723,19 +9723,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N24" t="n">
-        <v>335.1420048916687</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9963,7 +9963,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>335.1420048916683</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O27" t="n">
         <v>92.68755888888889</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069885</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10665,13 +10665,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>85.37211285416666</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10829,7 +10829,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10902,25 +10902,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,7 +11139,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,10 +11148,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>335.1420048916687</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>214.9725083336942</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>38.79760839914029</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>145.2325565835406</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.20122742686996</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.174740305032174e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>208.3739888962367</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>118.0013416284712</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822797</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812809</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>118.001341628471</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822794</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25913,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812806</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>237.5747424691237</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>594586.5298714498</v>
+        <v>593082.660837049</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>594586.5298714498</v>
+        <v>593082.660837049</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>572949.8330104983</v>
+        <v>572949.8330104984</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>605517.9992408538</v>
+        <v>605517.9992408539</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>575166.7014643407</v>
+        <v>575166.7014643408</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>721328.712373427</v>
+        <v>721328.7123734272</v>
       </c>
       <c r="C2" t="n">
-        <v>721328.712373427</v>
+        <v>721328.7123734273</v>
       </c>
       <c r="D2" t="n">
-        <v>721328.7123734272</v>
+        <v>721328.7123734269</v>
       </c>
       <c r="E2" t="n">
-        <v>677904.4907329525</v>
+        <v>677904.4907329528</v>
       </c>
       <c r="F2" t="n">
-        <v>677904.4907329524</v>
+        <v>677904.4907329537</v>
       </c>
       <c r="G2" t="n">
+        <v>721328.7123734275</v>
+      </c>
+      <c r="H2" t="n">
+        <v>721328.7123734275</v>
+      </c>
+      <c r="I2" t="n">
         <v>721328.7123734276</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>721328.7123734273</v>
       </c>
-      <c r="I2" t="n">
-        <v>721328.7123734273</v>
-      </c>
-      <c r="J2" t="n">
-        <v>721328.7123734272</v>
-      </c>
       <c r="K2" t="n">
-        <v>721328.7123734272</v>
+        <v>721328.7123734269</v>
       </c>
       <c r="L2" t="n">
-        <v>721328.7123734268</v>
+        <v>721328.7123734278</v>
       </c>
       <c r="M2" t="n">
         <v>721328.7123734276</v>
       </c>
       <c r="N2" t="n">
-        <v>721328.7123734275</v>
+        <v>721328.7123734273</v>
       </c>
       <c r="O2" t="n">
         <v>680860.3153380762</v>
       </c>
       <c r="P2" t="n">
-        <v>680860.3153380762</v>
+        <v>680860.3153380761</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.0058765497</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602661</v>
+        <v>26460.41160941839</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301437</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469664</v>
+        <v>215329.5897923931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670128</v>
+        <v>46725.80335481261</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436851</v>
+        <v>43782.97194555668</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015683</v>
+        <v>18983.55983015679</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224181.5440797612</v>
+        <v>229389.8493215838</v>
       </c>
       <c r="C4" t="n">
-        <v>224181.5440797612</v>
+        <v>229389.8493215838</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26430,28 +26430,28 @@
         <v>161760.5563326216</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
       </c>
       <c r="K4" t="n">
-        <v>187115.3694404866</v>
+        <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186792.5147858255</v>
+        <v>186659.1201767708</v>
       </c>
       <c r="M4" t="n">
+        <v>186364.8769761035</v>
+      </c>
+      <c r="N4" t="n">
         <v>186364.8769761036</v>
-      </c>
-      <c r="N4" t="n">
-        <v>186364.8769761035</v>
       </c>
       <c r="O4" t="n">
         <v>163435.172231613</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295288</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295288</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26494,22 +26494,22 @@
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391949</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.67530588336</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255073</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>253231.3098711657</v>
+        <v>257883.529492341</v>
       </c>
       <c r="C6" t="n">
-        <v>431226.6070055163</v>
+        <v>427532.5353688907</v>
       </c>
       <c r="D6" t="n">
-        <v>421443.2374054372</v>
+        <v>413706.948182045</v>
       </c>
       <c r="E6" t="n">
-        <v>330578.7137537096</v>
+        <v>330470.1531996088</v>
       </c>
       <c r="F6" t="n">
-        <v>461031.6448914217</v>
+        <v>460923.0843373218</v>
       </c>
       <c r="G6" t="n">
         <v>447699.1102087899</v>
       </c>
       <c r="H6" t="n">
+        <v>476794.0660818043</v>
+      </c>
+      <c r="I6" t="n">
+        <v>476794.0660818044</v>
+      </c>
+      <c r="J6" t="n">
+        <v>255224.707886628</v>
+      </c>
+      <c r="K6" t="n">
+        <v>470554.2976790207</v>
+      </c>
+      <c r="L6" t="n">
+        <v>427611.1135359611</v>
+      </c>
+      <c r="M6" t="n">
+        <v>433011.0941362477</v>
+      </c>
+      <c r="N6" t="n">
         <v>476794.0660818042</v>
       </c>
-      <c r="I6" t="n">
-        <v>476794.0660818042</v>
-      </c>
-      <c r="J6" t="n">
-        <v>248708.4227320547</v>
-      </c>
-      <c r="K6" t="n">
-        <v>470554.2976790211</v>
-      </c>
-      <c r="L6" t="n">
-        <v>431659.9507464323</v>
-      </c>
-      <c r="M6" t="n">
-        <v>434062.7891474359</v>
-      </c>
-      <c r="N6" t="n">
-        <v>476794.0660818043</v>
-      </c>
       <c r="O6" t="n">
-        <v>443121.1754937557</v>
+        <v>443020.0045011674</v>
       </c>
       <c r="P6" t="n">
-        <v>462104.7353239125</v>
+        <v>462003.564331324</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>93.99127447431644</v>
@@ -26707,25 +26707,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327777</v>
       </c>
       <c r="C4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327777</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880679</v>
+        <v>831.8776843078607</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126797</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.9637917208766</v>
+        <v>58.40725419351577</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165929</v>
+        <v>14.33013548902008</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769604</v>
+        <v>23.72944978769598</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327777</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.18305253651738</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559188</v>
+        <v>646.8007142757117</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455252</v>
+        <v>129.6883820257324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126797</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327777</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.18305253651738</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,22 +27382,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.0883887848524</v>
+        <v>204.4197721345531</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>75.41134685124891</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.16771101930433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>91.34301595726312</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>194.63131634981</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,10 +27625,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>9.342906461347184</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>30.23866377072596</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>173.3191472836697</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>76.6672101940816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27822,7 +27822,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>92.68333097786568</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27837,7 +27837,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>138.2142282199861</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>287.5853120777274</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>130.0953788601536</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>60.39847475326023</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28512,7 +28512,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.9912744743167</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
         <v>93.99127447431644</v>
@@ -28743,28 +28743,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>35.71049010668769</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28983,19 +28983,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5.63600263452912</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>5.636002634528467</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29229,13 +29229,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
-        <v>5.63600263452858</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901124</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901186</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="P29" t="n">
-        <v>30.27223765901141</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="J32" t="n">
-        <v>26.78466270501772</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.5863713539251</v>
+        <v>103.2865954513687</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539251</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="K34" t="n">
-        <v>28.92237465267971</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539251</v>
+        <v>44.06419228855032</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265643</v>
       </c>
     </row>
     <row r="35">
@@ -30180,13 +30180,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P37" t="n">
-        <v>5.636002634528936</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,34 +30378,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668768</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30414,10 +30414,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>5.636002634529973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023185</v>
+        <v>36.24905561693163</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="N43" t="n">
-        <v>36.24905561693183</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023185</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="L46" t="n">
-        <v>36.24905561693106</v>
+        <v>36.24905561693163</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>483.0440741407681</v>
+        <v>201.2509650038581</v>
       </c>
       <c r="N2" t="n">
-        <v>531.134231712985</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327777</v>
       </c>
       <c r="N3" t="n">
-        <v>531.134231712985</v>
+        <v>266.8214399882676</v>
       </c>
       <c r="O3" t="n">
-        <v>115.1315104473977</v>
+        <v>506.2290737327777</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>263.5004803849351</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.134231712985</v>
+        <v>377.1467184245786</v>
       </c>
       <c r="N5" t="n">
-        <v>531.134231712985</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,16 +35021,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>506.2290737327777</v>
       </c>
       <c r="N6" t="n">
-        <v>497.6619365360385</v>
+        <v>432.3031973984562</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327777</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>274.1926243725203</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>582.1523102088539</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>23.49322931597588</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>75.81849273220321</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
-        <v>453.2152403831814</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963367</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>118.3721477934977</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,10 +36136,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065884</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>458.4811686460869</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36279,19 +36279,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094873</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36443,19 +36443,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N24" t="n">
-        <v>249.769892037502</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,13 +36525,13 @@
         <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
-        <v>190.6760370094874</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039224</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751655996</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36683,7 +36683,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>249.7698920375016</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36841,19 +36841,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>474.756683004798</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751655991</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963363</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>172.8955444311067</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.889696322136</v>
+        <v>601.5899204195797</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>667.5458944776558</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>554.0708166997114</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659181</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576765</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>85.95534635440524</v>
       </c>
       <c r="K34" t="n">
-        <v>111.5840323394897</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>281.8153286485843</v>
       </c>
       <c r="M34" t="n">
-        <v>297.759682806717</v>
+        <v>304.2031452793562</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288839</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910039</v>
+        <v>208.4124418256292</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918833</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724871</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634528606</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,10 +37710,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>190.6760370094888</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37783,7 +37783,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,10 +37868,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>249.769892037502</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807277</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922518</v>
+        <v>202.0345504389516</v>
       </c>
       <c r="M43" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>221.2890899918906</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073107</v>
@@ -37956,7 +37956,7 @@
         <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038433</v>
+        <v>99.92360348038434</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38175,16 +38175,16 @@
         <v>66.3923519980728</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L46" t="n">
-        <v>202.034550438951</v>
+        <v>202.0345504389516</v>
       </c>
       <c r="M46" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
@@ -38193,7 +38193,7 @@
         <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038436</v>
+        <v>99.92360348038434</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
